--- a/Día 5/data.xlsx
+++ b/Día 5/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancarloschuncho/Desktop/Curso Python1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancarloschuncho/Desktop/Curso Python1.0/Probando/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ABEF1A-22D6-924A-8D6D-E676BCBB373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC65BAC7-8458-594F-9FD7-A8B1FE08BDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2120" windowWidth="22920" windowHeight="15780" xr2:uid="{306CDEA9-94B9-4272-89D9-9E5F51389D07}"/>
+    <workbookView xWindow="2120" yWindow="7680" windowWidth="14460" windowHeight="10740" xr2:uid="{306CDEA9-94B9-4272-89D9-9E5F51389D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
